--- a/Extraction/assets/assignment.xlsx
+++ b/Extraction/assets/assignment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>sl no</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>person</t>
+  </si>
+  <si>
+    <t>shoulder bag</t>
+  </si>
+  <si>
+    <t>vignes</t>
   </si>
 </sst>
 </file>
@@ -394,12 +400,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:M2"/>
+  <dimension ref="I1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +447,20 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Extraction/assets/assignment.xlsx
+++ b/Extraction/assets/assignment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>sl no</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>vignes</t>
+  </si>
+  <si>
+    <t>tote</t>
+  </si>
+  <si>
+    <t>cross body</t>
+  </si>
+  <si>
+    <t>subha</t>
   </si>
 </sst>
 </file>
@@ -400,12 +409,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:M3"/>
+  <dimension ref="I1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +470,22 @@
       </c>
       <c r="M3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Extraction/assets/assignment.xlsx
+++ b/Extraction/assets/assignment.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>sl no</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>subha</t>
+  </si>
+  <si>
+    <t>cluth</t>
   </si>
 </sst>
 </file>
@@ -409,87 +412,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:M5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="16" width="30" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="L4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:M2"/>
+  <autoFilter ref="A1:E2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
